--- a/CSC Data/ProgramReviews-ComputerScience-Data-Enrollment-121820.xlsx
+++ b/CSC Data/ProgramReviews-ComputerScience-Data-Enrollment-121820.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Major by Year" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="56">
   <si>
     <t>15/FA</t>
   </si>
@@ -150,6 +150,54 @@
   <si>
     <t>FA 19-20</t>
   </si>
+  <si>
+    <t xml:space="preserve">Men </t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
+    <t>Percent Women CSC Majors</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Percent Femail</t>
+  </si>
+  <si>
+    <t>Percent Male</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> White</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hispanic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
 </sst>
 </file>
 
@@ -216,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -274,11 +322,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,6 +446,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1013,6 +1093,3458 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AU CSC Demographics</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29838188976377955"/>
+          <c:y val="5.0925925925925923E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Major by Gender and Ethnicity'!$H$45:$K$45</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>White</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Black</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Asian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$H$53:$K$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>41.983333333333327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4833333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B4F-452A-A029-8371A1505A3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percent Women CSC Majors Per Year</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Gender and Ethnicity'!$F$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent Women CSC Majors</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Major by Gender and Ethnicity'!$E$45:$E$51</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Major by Gender and Ethnicity'!$E$46:$E$51</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Major by Gender and Ethnicity'!$F$46:$F$51</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Major by Gender and Ethnicity'!$F$47:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72B1-47B0-A0F0-D9B65938250D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1607102639"/>
+        <c:axId val="1791041551"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Major by Gender and Ethnicity'!$E$45:$E$51</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Major by Gender and Ethnicity'!$E$46:$E$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Major by Gender and Ethnicity'!$E$46:$E$51</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Major by Gender and Ethnicity'!$E$47:$E$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-72B1-47B0-A0F0-D9B65938250D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Major by Gender and Ethnicity'!$F$46:$F$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>18</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Major by Gender and Ethnicity'!$E$45:$E$51</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Major by Gender and Ethnicity'!$E$46:$E$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                        <c16:filteredLitCache>
+                          <c:numCache>
+                            <c:formatCode>General</c:formatCode>
+                            <c:ptCount val="1"/>
+                            <c:pt idx="0">
+                              <c:v>1</c:v>
+                            </c:pt>
+                          </c:numCache>
+                        </c16:filteredLitCache>
+                      </c:ext>
+                    </c:extLst>
+                    <c:f/>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-72B1-47B0-A0F0-D9B65938250D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'Major by Gender and Ethnicity'!$E$46:$E$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'Major by Gender and Ethnicity'!$E$45:$E$51</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'Major by Gender and Ethnicity'!$E$46:$E$51</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>2015</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2018</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2019</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2020</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{F5D05F6E-A05E-4728-AFD3-386EB277150F}">
+                        <c16:filteredLitCache>
+                          <c:numCache>
+                            <c:formatCode>General</c:formatCode>
+                            <c:ptCount val="1"/>
+                            <c:pt idx="0">
+                              <c:v>1</c:v>
+                            </c:pt>
+                          </c:numCache>
+                        </c16:filteredLitCache>
+                      </c:ext>
+                    </c:extLst>
+                    <c:f/>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="0"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-72B1-47B0-A0F0-D9B65938250D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1607102639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1791041551"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1791041551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1607102639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CSC Majors by Race</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Gender and Ethnicity'!$H$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$E$46:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$H$46:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F819-449E-B342-AEDE0635F1F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Gender and Ethnicity'!$I$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$E$46:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$I$46:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F819-449E-B342-AEDE0635F1F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Gender and Ethnicity'!$J$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$E$46:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$J$46:$J$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F819-449E-B342-AEDE0635F1F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Gender and Ethnicity'!$K$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$E$46:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$K$46:$K$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F819-449E-B342-AEDE0635F1F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Gender and Ethnicity'!$L$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$E$46:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$L$46:$L$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F819-449E-B342-AEDE0635F1F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1601438719"/>
+        <c:axId val="1601439135"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1601438719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1601439135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1601439135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1601438719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CSC Majors by Race</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Gender and Ethnicity'!$H$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>White</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$E$46:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$H$46:$H$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>49.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97BC-48BF-9058-BB6B146945A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Gender and Ethnicity'!$I$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hispanic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$E$46:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$I$46:$I$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-97BC-48BF-9058-BB6B146945A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Gender and Ethnicity'!$J$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Black</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$E$46:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$J$46:$J$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-97BC-48BF-9058-BB6B146945A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Gender and Ethnicity'!$K$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asian</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$E$46:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$K$46:$K$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-97BC-48BF-9058-BB6B146945A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Gender and Ethnicity'!$L$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$E$46:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Gender and Ethnicity'!$L$46:$L$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-97BC-48BF-9058-BB6B146945A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1601438719"/>
+        <c:axId val="1601439135"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1601438719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1601439135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1601439135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1601438719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>P</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Age Group'!$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16-22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Age Group'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Age Group'!$G$11:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>77.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FDB-4D76-BA6C-94F228CF57F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Age Group'!$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23-29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Age Group'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Age Group'!$H$11:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0FDB-4D76-BA6C-94F228CF57F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Age Group'!$I$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Age Group'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Age Group'!$I$11:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0FDB-4D76-BA6C-94F228CF57F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1768384655"/>
+        <c:axId val="1768385487"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1768384655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1768385487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1768385487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1768384655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CSC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Majors By Age By Year</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Age Group'!$C$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16-22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Age Group'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Age Group'!$C$11:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7F1-41C6-9C66-D589ABB239C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Age Group'!$D$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23-29</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Age Group'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Age Group'!$D$11:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D7F1-41C6-9C66-D589ABB239C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Major by Age Group'!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Major by Age Group'!$B$11:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Major by Age Group'!$E$11:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D7F1-41C6-9C66-D589ABB239C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1610077407"/>
+        <c:axId val="1610079071"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1610077407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1610079071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1610079071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1610077407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1093,6 +4625,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2112,20 +5884,3119 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2169,6 +9040,198 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2442,7 +9505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -2975,10 +10038,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2986,9 +10049,11 @@
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="25"/>
+    <col min="12" max="12" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>30</v>
       </c>
@@ -3000,8 +10065,9 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>27</v>
       </c>
@@ -3013,8 +10079,9 @@
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
       <c r="B3" s="31" t="s">
         <v>32</v>
@@ -3024,10 +10091,10 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
       <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="18" t="s">
         <v>6</v>
@@ -3038,24 +10105,36 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="15">
+        <f>(113-77)/77</f>
+        <v>0.46753246753246752</v>
+      </c>
       <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="15"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>2015</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="21">
+        <f>SUM(B6:B14)</f>
+        <v>13</v>
+      </c>
+      <c r="C5" s="21">
+        <f>SUM(C6:C14)</f>
+        <v>64</v>
+      </c>
+      <c r="D5" s="15">
+        <f>SUM(B5:C5)</f>
+        <v>77</v>
+      </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
@@ -3065,10 +10144,13 @@
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="15">
+        <f>9/77</f>
+        <v>0.11688311688311688</v>
+      </c>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>9</v>
       </c>
@@ -3082,10 +10164,13 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="15">
+        <f>22/77</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
@@ -3099,10 +10184,10 @@
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>11</v>
       </c>
@@ -3116,10 +10201,10 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>12</v>
       </c>
@@ -3129,10 +10214,10 @@
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
       <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
@@ -3141,26 +10226,61 @@
         <v>3</v>
       </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="25">
+        <v>2015</v>
+      </c>
+      <c r="F12">
+        <f>B5</f>
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <f>C5</f>
+        <v>64</v>
+      </c>
+      <c r="H12" s="25">
+        <f>D5</f>
+        <v>77</v>
+      </c>
+      <c r="I12">
+        <f>ROUND(F12/H12*100,1)</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J12" s="25">
+        <f>ROUND(G12/H12*100,1)</f>
+        <v>83.1</v>
+      </c>
+      <c r="K12">
+        <f>SUM(I12:J12)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>15</v>
       </c>
@@ -3169,13 +10289,35 @@
         <v>1</v>
       </c>
       <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="25">
+        <v>2016</v>
+      </c>
+      <c r="F13">
+        <f>B15</f>
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <f>C15</f>
+        <v>77</v>
+      </c>
+      <c r="H13" s="25">
+        <f>SUM(F13:G13)</f>
+        <v>91</v>
+      </c>
+      <c r="I13" s="25">
+        <f>ROUND(F13/H13*100,1)</f>
+        <v>15.4</v>
+      </c>
+      <c r="J13" s="25">
+        <f>ROUND(G13/H13*100,1)</f>
+        <v>84.6</v>
+      </c>
+      <c r="K13" s="25">
+        <f>SUM(I13:J13)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
@@ -3186,39 +10328,114 @@
         <v>35</v>
       </c>
       <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="25">
+        <v>2017</v>
+      </c>
+      <c r="F14">
+        <f>B25</f>
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <f>C25</f>
+        <v>93</v>
+      </c>
+      <c r="H14" s="25">
+        <f>D25</f>
+        <v>109</v>
+      </c>
+      <c r="I14" s="25">
+        <f t="shared" ref="I14:I18" si="0">ROUND(F14/H14*100,1)</f>
+        <v>14.7</v>
+      </c>
+      <c r="J14" s="25">
+        <f t="shared" ref="J14:J18" si="1">ROUND(G14/H14*100,1)</f>
+        <v>85.3</v>
+      </c>
+      <c r="K14" s="25">
+        <f t="shared" ref="K14:K18" si="2">SUM(I14:J14)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>2016</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="21">
+        <f>SUM(B16:B24)</f>
+        <v>14</v>
+      </c>
+      <c r="C15" s="21">
+        <f>SUM(C16:C24)</f>
+        <v>77</v>
+      </c>
+      <c r="D15" s="15">
+        <f>SUM(B15:C15)</f>
+        <v>91</v>
+      </c>
+      <c r="E15" s="25">
+        <v>2018</v>
+      </c>
+      <c r="F15">
+        <f>B35</f>
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <f>C35</f>
+        <v>90</v>
+      </c>
+      <c r="H15" s="25">
+        <f>D35</f>
+        <v>106</v>
+      </c>
+      <c r="I15" s="25">
+        <f t="shared" si="0"/>
+        <v>15.1</v>
+      </c>
+      <c r="J15" s="25">
+        <f t="shared" si="1"/>
+        <v>84.9</v>
+      </c>
+      <c r="K15" s="25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="25">
+        <v>2019</v>
+      </c>
+      <c r="F16">
+        <f>B45</f>
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <f>C45</f>
+        <v>82</v>
+      </c>
+      <c r="H16" s="25">
+        <f>D45</f>
+        <v>98</v>
+      </c>
+      <c r="I16" s="25">
+        <f t="shared" si="0"/>
+        <v>16.3</v>
+      </c>
+      <c r="J16" s="25">
+        <f t="shared" si="1"/>
+        <v>83.7</v>
+      </c>
+      <c r="K16" s="25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>9</v>
       </c>
@@ -3229,13 +10446,35 @@
         <v>3</v>
       </c>
       <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E17" s="25">
+        <v>2020</v>
+      </c>
+      <c r="F17">
+        <f>B55</f>
+        <v>18</v>
+      </c>
+      <c r="G17">
+        <f>C55</f>
+        <v>95</v>
+      </c>
+      <c r="H17" s="25">
+        <f>D55</f>
+        <v>113</v>
+      </c>
+      <c r="I17" s="25">
+        <f t="shared" si="0"/>
+        <v>15.9</v>
+      </c>
+      <c r="J17" s="25">
+        <f t="shared" si="1"/>
+        <v>84.1</v>
+      </c>
+      <c r="K17" s="25">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>10</v>
       </c>
@@ -3246,13 +10485,35 @@
         <v>11</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="13">
+        <f>ROUND(AVERAGE(F12:F17),1)</f>
+        <v>15.5</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" ref="G18:K18" si="3">ROUND(AVERAGE(G12:G17),1)</f>
+        <v>83.5</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="I18" s="25">
+        <f t="shared" si="3"/>
+        <v>15.7</v>
+      </c>
+      <c r="J18" s="25">
+        <f t="shared" si="3"/>
+        <v>84.3</v>
+      </c>
+      <c r="K18" s="25">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>11</v>
       </c>
@@ -3263,26 +10524,99 @@
         <v>21</v>
       </c>
       <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F19" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>2015</v>
+      </c>
+      <c r="F20">
+        <f>SUM(B14:C14)</f>
+        <v>38</v>
+      </c>
+      <c r="G20">
+        <v>22</v>
+      </c>
+      <c r="H20" s="25">
+        <v>9</v>
+      </c>
+      <c r="I20" s="35">
+        <v>4</v>
+      </c>
+      <c r="J20" s="35">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <f>SUM(F20:J20)</f>
+        <v>77</v>
+      </c>
+      <c r="L20" s="25">
+        <f>ROUND(F20/K20*100,1)</f>
+        <v>49.4</v>
+      </c>
+      <c r="M20" s="25">
+        <f>ROUND(G20/K20*100,1)</f>
+        <v>28.6</v>
+      </c>
+      <c r="N20" s="25">
+        <f>ROUND(H20/K20*100,1)</f>
+        <v>11.7</v>
+      </c>
+      <c r="O20" s="25">
+        <f>ROUND(I20/K20*100,1)</f>
+        <v>5.2</v>
+      </c>
+      <c r="P20" s="25">
+        <f>ROUND(J20/K20*100,1)</f>
+        <v>5.2</v>
+      </c>
+      <c r="Q20">
+        <f>SUM(L20:P20)</f>
+        <v>100.10000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>13</v>
       </c>
@@ -3291,26 +10625,116 @@
         <v>2</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>2016</v>
+      </c>
+      <c r="F21">
+        <f>SUM(B24:C24)</f>
+        <v>41</v>
+      </c>
+      <c r="G21">
+        <f>SUM(B19:C19)</f>
+        <v>29</v>
+      </c>
+      <c r="H21" s="25">
+        <f>SUM(B18:C18)</f>
+        <v>12</v>
+      </c>
+      <c r="I21">
+        <f>SUM(B17:C17)</f>
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21" s="25">
+        <f>SUM(F21:J21)</f>
+        <v>91</v>
+      </c>
+      <c r="L21" s="25">
+        <f t="shared" ref="L21:L25" si="4">ROUND(F21/K21*100,1)</f>
+        <v>45.1</v>
+      </c>
+      <c r="M21" s="25">
+        <f t="shared" ref="M21:M25" si="5">ROUND(G21/K21*100,1)</f>
+        <v>31.9</v>
+      </c>
+      <c r="N21" s="25">
+        <f t="shared" ref="N21:N25" si="6">ROUND(H21/K21*100,1)</f>
+        <v>13.2</v>
+      </c>
+      <c r="O21" s="25">
+        <f t="shared" ref="O21:O25" si="7">ROUND(I21/K21*100,1)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P21" s="25">
+        <f t="shared" ref="P21:P25" si="8">ROUND(J21/K21*100,1)</f>
+        <v>5.5</v>
+      </c>
+      <c r="Q21" s="25">
+        <f t="shared" ref="Q21:Q26" si="9">SUM(L21:P21)</f>
+        <v>100.10000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>2017</v>
+      </c>
+      <c r="F22">
+        <f>SUM(B34:C34)</f>
+        <v>47</v>
+      </c>
+      <c r="G22">
+        <f>SUM(B29:C29)</f>
+        <v>32</v>
+      </c>
+      <c r="H22" s="25">
+        <f>SUM(B28:C28)</f>
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <f>SUM(B27:C27)</f>
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+      <c r="K22" s="25">
+        <f>SUM(F22:J22)</f>
+        <v>109</v>
+      </c>
+      <c r="L22" s="25">
+        <f t="shared" si="4"/>
+        <v>43.1</v>
+      </c>
+      <c r="M22" s="25">
+        <f t="shared" si="5"/>
+        <v>29.4</v>
+      </c>
+      <c r="N22" s="25">
+        <f t="shared" si="6"/>
+        <v>14.7</v>
+      </c>
+      <c r="O22" s="25">
+        <f t="shared" si="7"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="P22" s="25">
+        <f t="shared" si="8"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q22" s="25">
+        <f t="shared" si="9"/>
+        <v>100.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>15</v>
       </c>
@@ -3319,13 +10743,58 @@
         <v>3</v>
       </c>
       <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>2018</v>
+      </c>
+      <c r="F23">
+        <f>SUM(B44:C44)</f>
+        <v>48</v>
+      </c>
+      <c r="G23">
+        <f>SUM(B39:C39)</f>
+        <v>34</v>
+      </c>
+      <c r="H23" s="25">
+        <f>SUM(B38:C38)</f>
+        <v>10</v>
+      </c>
+      <c r="I23">
+        <f>SUM(B37:C37)</f>
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>9</v>
+      </c>
+      <c r="K23" s="25">
+        <f t="shared" ref="K23:K26" si="10">SUM(F23:J23)</f>
+        <v>106</v>
+      </c>
+      <c r="L23" s="25">
+        <f t="shared" si="4"/>
+        <v>45.3</v>
+      </c>
+      <c r="M23" s="25">
+        <f t="shared" si="5"/>
+        <v>32.1</v>
+      </c>
+      <c r="N23" s="25">
+        <f t="shared" si="6"/>
+        <v>9.4</v>
+      </c>
+      <c r="O23" s="25">
+        <f t="shared" si="7"/>
+        <v>4.7</v>
+      </c>
+      <c r="P23" s="25">
+        <f t="shared" si="8"/>
+        <v>8.5</v>
+      </c>
+      <c r="Q23" s="25">
+        <f t="shared" si="9"/>
+        <v>100.00000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>16</v>
       </c>
@@ -3336,26 +10805,121 @@
         <v>37</v>
       </c>
       <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>2019</v>
+      </c>
+      <c r="F24">
+        <f>SUM(B54:C54)</f>
+        <v>35</v>
+      </c>
+      <c r="G24">
+        <f>SUM(B49:C49)</f>
+        <v>40</v>
+      </c>
+      <c r="H24" s="25">
+        <f>SUM(B48:C48)</f>
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <f>SUM(B47:C47)</f>
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>12</v>
+      </c>
+      <c r="K24" s="25">
+        <f t="shared" si="10"/>
+        <v>98</v>
+      </c>
+      <c r="L24" s="25">
+        <f t="shared" si="4"/>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="M24" s="25">
+        <f t="shared" si="5"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="N24" s="25">
+        <f t="shared" si="6"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="O24" s="25">
+        <f t="shared" si="7"/>
+        <v>6.1</v>
+      </c>
+      <c r="P24" s="25">
+        <f t="shared" si="8"/>
+        <v>12.2</v>
+      </c>
+      <c r="Q24" s="25">
+        <f t="shared" si="9"/>
+        <v>99.899999999999991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
         <v>2017</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="21">
+        <f>SUM(B26:B34)</f>
+        <v>16</v>
+      </c>
+      <c r="C25" s="21">
+        <f>SUM(C26:C34)</f>
+        <v>93</v>
+      </c>
+      <c r="D25" s="13">
+        <f>SUM(B25:C25)</f>
+        <v>109</v>
+      </c>
+      <c r="E25">
+        <v>2020</v>
+      </c>
+      <c r="F25">
+        <v>38</v>
+      </c>
+      <c r="G25">
+        <v>49</v>
+      </c>
+      <c r="H25" s="25">
+        <v>4</v>
+      </c>
+      <c r="I25" s="35">
+        <v>9</v>
+      </c>
+      <c r="J25" s="35">
+        <v>14</v>
+      </c>
+      <c r="K25" s="25">
+        <f t="shared" si="10"/>
+        <v>114</v>
+      </c>
+      <c r="L25" s="25">
+        <f t="shared" si="4"/>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="M25" s="25">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="N25" s="25">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+      <c r="O25" s="25">
+        <f t="shared" si="7"/>
+        <v>7.9</v>
+      </c>
+      <c r="P25" s="25">
+        <f t="shared" si="8"/>
+        <v>12.3</v>
+      </c>
+      <c r="Q25" s="25">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>8</v>
       </c>
@@ -3363,12 +10927,40 @@
       <c r="C26" s="16"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <f>3/35*100</f>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="shared" si="10"/>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="L26" s="25">
+        <f t="shared" ref="L23:L26" si="11">ROUND(F26/K26*100,2)</f>
+        <v>100</v>
+      </c>
+      <c r="M26" s="25">
+        <f t="shared" ref="M21:M26" si="12">ROUND(G26/K26*100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="25">
+        <f t="shared" ref="N21:N26" si="13">ROUND(H26/K26*100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="25">
+        <f t="shared" ref="O21:O26" si="14">ROUND(I26/K26*100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="25">
+        <f t="shared" ref="P21:P26" si="15">ROUND(J26/K26*100,2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="25">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>9</v>
       </c>
@@ -3380,12 +10972,25 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="13">
+        <f>(F24-F23)/F23*100</f>
+        <v>-27.083333333333332</v>
+      </c>
+      <c r="G27" s="13">
+        <f>(H24-H23)/H23</f>
+        <v>-0.5</v>
+      </c>
+      <c r="H27" s="25">
+        <f>(H25-H22)/H22*100</f>
+        <v>-75</v>
+      </c>
+      <c r="I27" s="13">
+        <f>-12/16</f>
+        <v>-0.75</v>
+      </c>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>10</v>
       </c>
@@ -3397,12 +11002,18 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
+      <c r="F28" s="13">
+        <f>38/77</f>
+        <v>0.4935064935064935</v>
+      </c>
+      <c r="G28" s="13">
+        <f>(6/23)*100</f>
+        <v>26.086956521739129</v>
+      </c>
       <c r="I28" s="13"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>11</v>
       </c>
@@ -3416,10 +11027,10 @@
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
       <c r="I29" s="13"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="13"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>12</v>
       </c>
@@ -3431,10 +11042,10 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>13</v>
       </c>
@@ -3443,26 +11054,24 @@
         <v>2</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <f>(49-22)/22*100</f>
+        <v>122.72727272727273</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <f>(48-35)/48</f>
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>15</v>
       </c>
@@ -3473,13 +11082,8 @@
         <v>4</v>
       </c>
       <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>16</v>
       </c>
@@ -3490,26 +11094,25 @@
         <v>42</v>
       </c>
       <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="20">
         <v>2018</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="21">
+        <f>SUM(B36:B44)</f>
+        <v>16</v>
+      </c>
+      <c r="C35" s="21">
+        <f>SUM(C36:C44)</f>
+        <v>90</v>
+      </c>
+      <c r="D35" s="13">
+        <f>SUM(B35:C35)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>8</v>
       </c>
@@ -3518,13 +11121,8 @@
         <v>1</v>
       </c>
       <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>9</v>
       </c>
@@ -3535,13 +11133,8 @@
         <v>3</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
         <v>10</v>
       </c>
@@ -3555,10 +11148,10 @@
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
       <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>11</v>
       </c>
@@ -3572,10 +11165,10 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
       <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>12</v>
       </c>
@@ -3587,10 +11180,10 @@
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
       <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>13</v>
       </c>
@@ -3602,10 +11195,10 @@
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
       <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>14</v>
       </c>
@@ -3617,10 +11210,10 @@
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
       <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>15</v>
       </c>
@@ -3634,10 +11227,10 @@
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
       <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>16</v>
       </c>
@@ -3647,40 +11240,134 @@
       <c r="C44" s="16">
         <v>42</v>
       </c>
-      <c r="D44" s="13"/>
+      <c r="D44" s="13">
+        <f>SUM(B45:C45)</f>
+        <v>98</v>
+      </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
       <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
         <v>2019</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="21">
+        <f>SUM(B46:B54)</f>
+        <v>16</v>
+      </c>
+      <c r="C45" s="21">
+        <f>SUM(C46:C54)</f>
+        <v>82</v>
+      </c>
+      <c r="D45" s="13">
+        <f>SUM(B45:C45)</f>
+        <v>98</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K45" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="M45" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="P45" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q45" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="S45" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="T45" s="38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
       <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>2015</v>
+      </c>
+      <c r="F46" s="15">
+        <v>13</v>
+      </c>
+      <c r="G46" s="15">
+        <f>C5/M46*100</f>
+        <v>83.116883116883116</v>
+      </c>
+      <c r="H46" s="15">
+        <v>49.4</v>
+      </c>
+      <c r="I46">
+        <v>28.6</v>
+      </c>
+      <c r="J46" s="15">
+        <v>11.7</v>
+      </c>
+      <c r="K46">
+        <v>5.2</v>
+      </c>
+      <c r="L46" s="25">
+        <v>5.2</v>
+      </c>
+      <c r="M46">
+        <f>SUM(B6:C14)</f>
+        <v>77</v>
+      </c>
+      <c r="O46" s="36">
+        <v>15.7</v>
+      </c>
+      <c r="P46" s="36">
+        <v>84.2</v>
+      </c>
+      <c r="Q46" s="36">
+        <v>41.7</v>
+      </c>
+      <c r="R46" s="36">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="S46" s="36">
+        <v>9.6</v>
+      </c>
+      <c r="T46" s="36">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>9</v>
       </c>
@@ -3691,13 +11378,37 @@
         <v>4</v>
       </c>
       <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E47" s="15">
+        <v>2016</v>
+      </c>
+      <c r="F47" s="15">
+        <v>14</v>
+      </c>
+      <c r="G47" s="15">
+        <f>77/M47*100</f>
+        <v>84.615384615384613</v>
+      </c>
+      <c r="H47">
+        <v>45.1</v>
+      </c>
+      <c r="I47" s="15">
+        <v>31.9</v>
+      </c>
+      <c r="J47" s="15">
+        <v>13.2</v>
+      </c>
+      <c r="K47">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L47" s="25">
+        <v>5.5</v>
+      </c>
+      <c r="M47">
+        <f>SUM(B16:C24)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>10</v>
       </c>
@@ -3708,13 +11419,36 @@
         <v>4</v>
       </c>
       <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E48" s="15">
+        <v>2017</v>
+      </c>
+      <c r="F48" s="15">
+        <v>16</v>
+      </c>
+      <c r="G48" s="15">
+        <f>93/M48*100</f>
+        <v>85.321100917431195</v>
+      </c>
+      <c r="H48">
+        <v>43.1</v>
+      </c>
+      <c r="I48" s="15">
+        <v>29.4</v>
+      </c>
+      <c r="J48" s="15">
+        <v>14.7</v>
+      </c>
+      <c r="K48">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L48" s="25">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M48">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>11</v>
       </c>
@@ -3725,13 +11459,36 @@
         <v>36</v>
       </c>
       <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E49" s="15">
+        <v>2018</v>
+      </c>
+      <c r="F49" s="15">
+        <v>16</v>
+      </c>
+      <c r="G49" s="15">
+        <f>90/M49*100</f>
+        <v>84.905660377358487</v>
+      </c>
+      <c r="H49">
+        <v>45.3</v>
+      </c>
+      <c r="I49" s="15">
+        <v>32.1</v>
+      </c>
+      <c r="J49" s="15">
+        <v>9.4</v>
+      </c>
+      <c r="K49">
+        <v>4.7</v>
+      </c>
+      <c r="L49" s="25">
+        <v>8.5</v>
+      </c>
+      <c r="M49">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>12</v>
       </c>
@@ -3740,13 +11497,36 @@
         <v>3</v>
       </c>
       <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E50" s="15">
+        <v>2019</v>
+      </c>
+      <c r="F50" s="15">
+        <v>16</v>
+      </c>
+      <c r="G50" s="15">
+        <f>82/M50*100</f>
+        <v>83.673469387755105</v>
+      </c>
+      <c r="H50">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="I50" s="15">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="J50" s="15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K50">
+        <v>6.1</v>
+      </c>
+      <c r="L50" s="25">
+        <v>12.2</v>
+      </c>
+      <c r="M50">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>13</v>
       </c>
@@ -3757,13 +11537,40 @@
         <v>2</v>
       </c>
       <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E51" s="13">
+        <v>2020</v>
+      </c>
+      <c r="F51" s="13">
+        <v>18</v>
+      </c>
+      <c r="G51" s="13">
+        <f>95/M51*100</f>
+        <v>84.070796460176993</v>
+      </c>
+      <c r="H51">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="I51" s="13">
+        <v>43</v>
+      </c>
+      <c r="J51" s="13">
+        <v>3.5</v>
+      </c>
+      <c r="K51">
+        <v>7.9</v>
+      </c>
+      <c r="L51" s="25">
+        <v>12.3</v>
+      </c>
+      <c r="M51">
+        <v>113</v>
+      </c>
+      <c r="N51">
+        <f>SUM(H51:K51)</f>
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>14</v>
       </c>
@@ -3775,10 +11582,11 @@
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
+      <c r="H52"/>
       <c r="I52" s="13"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="13"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>15</v>
       </c>
@@ -3790,12 +11598,32 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F53" s="13">
+        <f>AVERAGE(F46:F51)</f>
+        <v>15.5</v>
+      </c>
+      <c r="G53" s="13">
+        <f>AVERAGE(G46:G51)</f>
+        <v>84.28388247916493</v>
+      </c>
+      <c r="H53">
+        <f>AVERAGE(H46:H51)</f>
+        <v>41.983333333333327</v>
+      </c>
+      <c r="I53" s="13">
+        <f>AVERAGE(I46:I51)</f>
+        <v>34.300000000000004</v>
+      </c>
+      <c r="J53" s="13">
+        <f>AVERAGE(J46:J51)</f>
+        <v>9.6</v>
+      </c>
+      <c r="K53">
+        <f>AVERAGE(K46:K51)</f>
+        <v>5.4833333333333334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>16</v>
       </c>
@@ -3809,24 +11637,34 @@
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
       <c r="I54" s="13"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="13"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="20">
         <v>2020</v>
       </c>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="21">
+        <f>SUM(B56:B64)</f>
+        <v>18</v>
+      </c>
+      <c r="C55" s="21">
+        <f>SUM(C56:C64)</f>
+        <v>95</v>
+      </c>
+      <c r="D55">
+        <f>SUM(B55:C55)</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>9</v>
       </c>
@@ -3837,7 +11675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>10</v>
       </c>
@@ -3848,7 +11686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>11</v>
       </c>
@@ -3858,8 +11696,16 @@
       <c r="C59" s="16">
         <v>42</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <f>SUM(B59:C59)</f>
+        <v>49</v>
+      </c>
+      <c r="E59">
+        <f>D59/D66</f>
+        <v>0.4336283185840708</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>12</v>
       </c>
@@ -3867,8 +11713,12 @@
       <c r="C60" s="16">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <f>C64/D66</f>
+        <v>0.31858407079646017</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
         <v>13</v>
       </c>
@@ -3879,7 +11729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
         <v>14</v>
       </c>
@@ -3888,7 +11738,7 @@
       </c>
       <c r="C62" s="16"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
         <v>15</v>
       </c>
@@ -3899,7 +11749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="17" t="s">
         <v>16</v>
       </c>
@@ -3908,6 +11758,26 @@
       </c>
       <c r="C64" s="16">
         <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <f>D59/D66*100</f>
+        <v>43.362831858407077</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f>SUM(B56:B64)</f>
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <f>SUM(C57:C64)</f>
+        <v>95</v>
+      </c>
+      <c r="D66">
+        <f>SUM(B56:C64)</f>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3918,24 +11788,26 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
     <col min="8" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
@@ -4139,6 +12011,286 @@
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2015</v>
+      </c>
+      <c r="C11">
+        <f>B5</f>
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f>SUM(C11:E11)</f>
+        <v>77</v>
+      </c>
+      <c r="G11">
+        <f>ROUND(C11/F11*100,1)</f>
+        <v>77.900000000000006</v>
+      </c>
+      <c r="H11" s="25">
+        <f>ROUND(D11/F11*100,1)</f>
+        <v>20.8</v>
+      </c>
+      <c r="I11" s="25">
+        <f>ROUND(E11/F11*100,1)</f>
+        <v>1.3</v>
+      </c>
+      <c r="J11">
+        <f>SUM(G11:I11)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2016</v>
+      </c>
+      <c r="C12">
+        <f>E5</f>
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <v>16</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" ref="F12:F16" si="0">SUM(C12:E12)</f>
+        <v>91</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" ref="G12:G16" si="1">ROUND(C12/F12*100,1)</f>
+        <v>79.099999999999994</v>
+      </c>
+      <c r="H12" s="25">
+        <f t="shared" ref="H12:H17" si="2">ROUND(D12/F12*100,1)</f>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="I12" s="25">
+        <f t="shared" ref="I12:I16" si="3">ROUND(E12/F12*100,1)</f>
+        <v>3.3</v>
+      </c>
+      <c r="J12" s="25">
+        <f t="shared" ref="J12:J16" si="4">SUM(G12:I12)</f>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2017</v>
+      </c>
+      <c r="C13">
+        <v>84</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="G13" s="25">
+        <f t="shared" si="1"/>
+        <v>77.099999999999994</v>
+      </c>
+      <c r="H13" s="25">
+        <f t="shared" si="2"/>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I13" s="25">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="J13" s="25">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2018</v>
+      </c>
+      <c r="C14">
+        <v>83</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="25">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="G14" s="25">
+        <f t="shared" si="1"/>
+        <v>78.3</v>
+      </c>
+      <c r="H14" s="25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="I14" s="25">
+        <f t="shared" si="3"/>
+        <v>4.7</v>
+      </c>
+      <c r="J14" s="25">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2019</v>
+      </c>
+      <c r="C15">
+        <v>82</v>
+      </c>
+      <c r="D15">
+        <v>19</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="G15" s="25">
+        <f t="shared" si="1"/>
+        <v>76.599999999999994</v>
+      </c>
+      <c r="H15" s="25">
+        <f t="shared" si="2"/>
+        <v>17.8</v>
+      </c>
+      <c r="I15" s="25">
+        <f t="shared" si="3"/>
+        <v>5.6</v>
+      </c>
+      <c r="J15" s="25">
+        <f t="shared" si="4"/>
+        <v>99.999999999999986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2020</v>
+      </c>
+      <c r="C16">
+        <v>98</v>
+      </c>
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="G16" s="25">
+        <f t="shared" si="1"/>
+        <v>86.7</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" si="2"/>
+        <v>10.6</v>
+      </c>
+      <c r="I16" s="25">
+        <f t="shared" si="3"/>
+        <v>2.7</v>
+      </c>
+      <c r="J16" s="25">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f>AVERAGE(C11:C16)</f>
+        <v>79.833333333333329</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" ref="D18:J18" si="5">AVERAGE(D11:D16)</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="E18" s="25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="5"/>
+        <v>100.5</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="5"/>
+        <v>79.283333333333331</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" si="5"/>
+        <v>16.866666666666667</v>
+      </c>
+      <c r="I18" s="25">
+        <f t="shared" si="5"/>
+        <v>3.8499999999999996</v>
+      </c>
+      <c r="J18" s="25">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>(98-60)/60*100</f>
+        <v>63.333333333333329</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="Q3:S3"/>
@@ -4152,6 +12304,7 @@
     <mergeCell ref="N3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4354,7 +12507,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="K16:L16"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
